--- a/Students/Notas.xlsx
+++ b/Students/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/MetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5000697-E2AC-834C-9ED1-E996A89CF869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB7FA61-2BC1-6248-A059-C453FED40DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8E6F1CB5-4748-7B4E-9FE6-5B9D4D36B9D4}"/>
+    <workbookView xWindow="4100" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{8E6F1CB5-4748-7B4E-9FE6-5B9D4D36B9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Laboratorio" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>Actividad_04</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Actividad/Nombre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>formato</t>
   </si>
 </sst>
 </file>
@@ -348,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +375,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +488,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,14 +523,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B70DA-C48E-304D-9F9F-4A241B2FB7F3}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,1253 +1079,1253 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2">
-        <v>5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>5</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5</v>
-      </c>
-      <c r="N17" s="2">
-        <v>5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-      <c r="P17" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2">
-        <v>5</v>
-      </c>
-      <c r="M18" s="2">
-        <v>5</v>
-      </c>
-      <c r="N18" s="2">
-        <v>5</v>
-      </c>
-      <c r="O18" s="2">
-        <v>5</v>
-      </c>
-      <c r="P18" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5</v>
-      </c>
-      <c r="M19" s="3">
-        <v>5</v>
-      </c>
-      <c r="N19" s="3">
-        <v>5</v>
-      </c>
-      <c r="O19" s="3">
-        <v>5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="3">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5</v>
-      </c>
-      <c r="N22" s="2">
-        <v>5</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2">
-        <v>5</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2">
-        <v>5</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="2">
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5</v>
-      </c>
-      <c r="K24" s="2">
-        <v>5</v>
-      </c>
-      <c r="L24" s="2">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5</v>
-      </c>
-      <c r="N24" s="2">
-        <v>5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="2">
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5</v>
-      </c>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
-      <c r="M25" s="2">
-        <v>5</v>
-      </c>
-      <c r="N25" s="2">
-        <v>5</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>5</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2">
-        <v>5</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>5</v>
-      </c>
-      <c r="P27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="2">
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>5</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>5</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="2">
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>5</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>5</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>5</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="3">
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>5</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>5</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>5</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <v>5</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="2">
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>5</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>5</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="2">
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>5</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>5</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="3">
-        <v>5</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>5</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>5</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>5</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>5</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="B38" s="16"/>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
         <f>AVERAGE(D16:D37)</f>
         <v>3.5</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="14">
         <f>AVERAGE(F16:F37)</f>
         <v>4.7727272727272725</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="14">
         <f>AVERAGE(G16:G37)</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="14">
         <f>AVERAGE(H16:H37)</f>
         <v>4.3181818181818183</v>
       </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
         <f>AVERAGE(J16:J37)</f>
         <v>2.7272727272727271</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="14">
         <f>AVERAGE(K16:K37)</f>
         <v>4.7727272727272725</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="14">
         <f>AVERAGE(L16:L37)</f>
         <v>2.5</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="14">
         <f>AVERAGE(M16:M37)</f>
         <v>4.3181818181818183</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="14">
         <f>AVERAGE(N16:N37)</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="14">
         <f>AVERAGE(O16:O37)</f>
         <v>1.5909090909090908</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="14">
         <f>AVERAGE(P16:P37)</f>
         <v>4.0909090909090908</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2324,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB32E00-1064-DE44-8B2D-3FF9B15C1C1E}">
-  <dimension ref="A8:F12"/>
+  <dimension ref="A8:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,48 +2360,280 @@
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="H8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20">
+        <v>5</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2</v>
+      </c>
+      <c r="K9" s="20">
+        <v>5</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="N9" s="20">
+        <v>5</v>
+      </c>
+      <c r="O9" s="20">
+        <v>5</v>
+      </c>
+      <c r="P9" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="20">
+        <v>5</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>2</v>
+      </c>
+      <c r="K10" s="20">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20">
+        <v>5</v>
+      </c>
+      <c r="M10" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="N10" s="20">
+        <v>5</v>
+      </c>
+      <c r="O10" s="20">
+        <v>5</v>
+      </c>
+      <c r="P10" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>5</v>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f>AVERAGE(D9:D11)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" ref="E12:O12" si="0">AVERAGE(F9:F11)</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="0"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" ref="P12" si="1">AVERAGE(P9:P11)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" ref="Q12" si="2">AVERAGE(Q9:Q11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>